--- a/data/pca/factorExposure/factorExposure_2012-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01487961950112639</v>
+        <v>-0.01415484781567732</v>
       </c>
       <c r="C2">
-        <v>-0.03105216527696747</v>
+        <v>0.02513464737650507</v>
       </c>
       <c r="D2">
-        <v>-0.0165096136886906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02047544803978725</v>
+      </c>
+      <c r="E2">
+        <v>0.01057619816038788</v>
+      </c>
+      <c r="F2">
+        <v>-0.02628635730494641</v>
+      </c>
+      <c r="G2">
+        <v>0.001096823533155262</v>
+      </c>
+      <c r="H2">
+        <v>-0.03262218993145245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07487659807327245</v>
+        <v>-0.08721741685741466</v>
       </c>
       <c r="C4">
-        <v>-0.05057951029035721</v>
+        <v>0.03433745274788762</v>
       </c>
       <c r="D4">
-        <v>-0.08437171681308075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0714874907358387</v>
+      </c>
+      <c r="E4">
+        <v>0.003045454785952988</v>
+      </c>
+      <c r="F4">
+        <v>-0.041078789094587</v>
+      </c>
+      <c r="G4">
+        <v>0.009761680683173273</v>
+      </c>
+      <c r="H4">
+        <v>0.04161332820110029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1124807198349058</v>
+        <v>-0.1226580946889136</v>
       </c>
       <c r="C6">
-        <v>-0.04829578194048183</v>
+        <v>0.03240843618745226</v>
       </c>
       <c r="D6">
-        <v>-0.006062911002707132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01258379669720521</v>
+      </c>
+      <c r="E6">
+        <v>-0.02769944100696909</v>
+      </c>
+      <c r="F6">
+        <v>-0.05007248298937297</v>
+      </c>
+      <c r="G6">
+        <v>0.03550829356429874</v>
+      </c>
+      <c r="H6">
+        <v>-0.1205753730331444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05400848999421074</v>
+        <v>-0.06383545420187545</v>
       </c>
       <c r="C7">
-        <v>-0.02568513756758712</v>
+        <v>0.01285460774998892</v>
       </c>
       <c r="D7">
-        <v>-0.03642243867820946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05057503732266225</v>
+      </c>
+      <c r="E7">
+        <v>0.03115070711214939</v>
+      </c>
+      <c r="F7">
+        <v>-0.04625488998451844</v>
+      </c>
+      <c r="G7">
+        <v>-0.03603975785073983</v>
+      </c>
+      <c r="H7">
+        <v>0.0127693251049487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03980824028555019</v>
+        <v>-0.04275012208690747</v>
       </c>
       <c r="C8">
-        <v>-0.01402756407814408</v>
+        <v>0.009841320638777068</v>
       </c>
       <c r="D8">
-        <v>-0.05929067081224892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02511673657135272</v>
+      </c>
+      <c r="E8">
+        <v>0.01414279480528703</v>
+      </c>
+      <c r="F8">
+        <v>-0.06402802165595717</v>
+      </c>
+      <c r="G8">
+        <v>0.04833821322822606</v>
+      </c>
+      <c r="H8">
+        <v>-0.01268723825266533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06924217352338191</v>
+        <v>-0.07868782546228301</v>
       </c>
       <c r="C9">
-        <v>-0.03789937148511417</v>
+        <v>0.02240476904818812</v>
       </c>
       <c r="D9">
-        <v>-0.07592102137500341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06565490992636737</v>
+      </c>
+      <c r="E9">
+        <v>0.0229862518778041</v>
+      </c>
+      <c r="F9">
+        <v>-0.03312835614254231</v>
+      </c>
+      <c r="G9">
+        <v>0.01910751172771739</v>
+      </c>
+      <c r="H9">
+        <v>0.04716077008324305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03211317090758336</v>
+        <v>-0.04521880025050261</v>
       </c>
       <c r="C10">
-        <v>-0.02971420922591781</v>
+        <v>0.05996069742880741</v>
       </c>
       <c r="D10">
-        <v>0.1749026613704315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1743081426887261</v>
+      </c>
+      <c r="E10">
+        <v>0.04193890342742765</v>
+      </c>
+      <c r="F10">
+        <v>-0.05362018811263281</v>
+      </c>
+      <c r="G10">
+        <v>-0.03533482236965899</v>
+      </c>
+      <c r="H10">
+        <v>-0.04889910150659618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07281099046343417</v>
+        <v>-0.0768422847507816</v>
       </c>
       <c r="C11">
-        <v>-0.04026192580533118</v>
+        <v>0.01951426113747708</v>
       </c>
       <c r="D11">
-        <v>-0.05804519750941775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06602948694369461</v>
+      </c>
+      <c r="E11">
+        <v>-0.007937473621389924</v>
+      </c>
+      <c r="F11">
+        <v>-0.03538784721580491</v>
+      </c>
+      <c r="G11">
+        <v>0.02696830725069371</v>
+      </c>
+      <c r="H11">
+        <v>0.07528455991423672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06096162176413152</v>
+        <v>-0.06951328006565613</v>
       </c>
       <c r="C12">
-        <v>-0.04975147296505841</v>
+        <v>0.0325995749168805</v>
       </c>
       <c r="D12">
-        <v>-0.04659281627126512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05010722401563826</v>
+      </c>
+      <c r="E12">
+        <v>0.01077979907761869</v>
+      </c>
+      <c r="F12">
+        <v>-0.02437770102657704</v>
+      </c>
+      <c r="G12">
+        <v>0.01377249950735477</v>
+      </c>
+      <c r="H12">
+        <v>0.03294167308495593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0671044162659697</v>
+        <v>-0.06695234831803205</v>
       </c>
       <c r="C13">
-        <v>-0.03297232305473985</v>
+        <v>0.0167903068844581</v>
       </c>
       <c r="D13">
-        <v>-0.04574066265525854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03993452913882014</v>
+      </c>
+      <c r="E13">
+        <v>0.01226042449273621</v>
+      </c>
+      <c r="F13">
+        <v>-0.02499097117648769</v>
+      </c>
+      <c r="G13">
+        <v>0.001959445013539863</v>
+      </c>
+      <c r="H13">
+        <v>0.05384460684370064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.033265930612075</v>
+        <v>-0.03898274536700164</v>
       </c>
       <c r="C14">
-        <v>-0.03121115238816836</v>
+        <v>0.02563260937838283</v>
       </c>
       <c r="D14">
-        <v>0.004976961802606189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01534028442062239</v>
+      </c>
+      <c r="E14">
+        <v>0.02840676687580854</v>
+      </c>
+      <c r="F14">
+        <v>-0.01966989078293249</v>
+      </c>
+      <c r="G14">
+        <v>0.02285901785129371</v>
+      </c>
+      <c r="H14">
+        <v>0.05693209191203506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04051990795845813</v>
+        <v>-0.03994998860578016</v>
       </c>
       <c r="C15">
-        <v>-0.008096700757207151</v>
+        <v>0.001338671943122011</v>
       </c>
       <c r="D15">
-        <v>-0.02011716307859261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008131608805065438</v>
+      </c>
+      <c r="E15">
+        <v>0.03569461016503595</v>
+      </c>
+      <c r="F15">
+        <v>-0.00422494042902968</v>
+      </c>
+      <c r="G15">
+        <v>0.03057335094990499</v>
+      </c>
+      <c r="H15">
+        <v>0.0241972199089031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06107302776153073</v>
+        <v>-0.07173865124242311</v>
       </c>
       <c r="C16">
-        <v>-0.03845944352817755</v>
+        <v>0.02302853197898715</v>
       </c>
       <c r="D16">
-        <v>-0.05096082777901099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06235702261613785</v>
+      </c>
+      <c r="E16">
+        <v>0.003311101014448758</v>
+      </c>
+      <c r="F16">
+        <v>-0.0315321240915293</v>
+      </c>
+      <c r="G16">
+        <v>0.01234435046482922</v>
+      </c>
+      <c r="H16">
+        <v>0.04943815194377863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06380297144914812</v>
+        <v>-0.06221049988023642</v>
       </c>
       <c r="C20">
-        <v>-0.02349180953899845</v>
+        <v>0.006029692412293067</v>
       </c>
       <c r="D20">
-        <v>-0.04764742460283704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04134113700844526</v>
+      </c>
+      <c r="E20">
+        <v>0.01066729867367948</v>
+      </c>
+      <c r="F20">
+        <v>-0.03040880860764053</v>
+      </c>
+      <c r="G20">
+        <v>0.02171205605274485</v>
+      </c>
+      <c r="H20">
+        <v>0.05187106026639176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02612085953649032</v>
+        <v>-0.02669029110809432</v>
       </c>
       <c r="C21">
-        <v>0.00237178946203232</v>
+        <v>-0.009595109318084983</v>
       </c>
       <c r="D21">
-        <v>-0.02193512090887615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02254075147501521</v>
+      </c>
+      <c r="E21">
+        <v>0.0413571443042605</v>
+      </c>
+      <c r="F21">
+        <v>0.004448702231847431</v>
+      </c>
+      <c r="G21">
+        <v>0.006586009757011779</v>
+      </c>
+      <c r="H21">
+        <v>-0.04678468186280661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07773598565649725</v>
+        <v>-0.07005635006455822</v>
       </c>
       <c r="C22">
-        <v>-0.058596199935961</v>
+        <v>0.0327403994234732</v>
       </c>
       <c r="D22">
-        <v>-0.1412949581459545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09949135548439964</v>
+      </c>
+      <c r="E22">
+        <v>0.6117289601536811</v>
+      </c>
+      <c r="F22">
+        <v>0.07695849969312712</v>
+      </c>
+      <c r="G22">
+        <v>-0.1346781270717057</v>
+      </c>
+      <c r="H22">
+        <v>-0.1436131379592919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07870016784577946</v>
+        <v>-0.07095107700959991</v>
       </c>
       <c r="C23">
-        <v>-0.05728218149495264</v>
+        <v>0.03142046836974196</v>
       </c>
       <c r="D23">
-        <v>-0.1425992262188765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1005207690611688</v>
+      </c>
+      <c r="E23">
+        <v>0.6137727127300885</v>
+      </c>
+      <c r="F23">
+        <v>0.07615531409344133</v>
+      </c>
+      <c r="G23">
+        <v>-0.1298721759967907</v>
+      </c>
+      <c r="H23">
+        <v>-0.1386318689408891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07572745563525483</v>
+        <v>-0.08050711776130183</v>
       </c>
       <c r="C24">
-        <v>-0.04926782324923963</v>
+        <v>0.02800839420126206</v>
       </c>
       <c r="D24">
-        <v>-0.06295946142155401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0644827789599051</v>
+      </c>
+      <c r="E24">
+        <v>0.01024188149443221</v>
+      </c>
+      <c r="F24">
+        <v>-0.04043708604314942</v>
+      </c>
+      <c r="G24">
+        <v>0.02367015623742293</v>
+      </c>
+      <c r="H24">
+        <v>0.03910187353435969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07489437739855372</v>
+        <v>-0.07935461698190457</v>
       </c>
       <c r="C25">
-        <v>-0.05192412965577153</v>
+        <v>0.03238799953670492</v>
       </c>
       <c r="D25">
-        <v>-0.06553328690961921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05292276542102022</v>
+      </c>
+      <c r="E25">
+        <v>0.01690327428972416</v>
+      </c>
+      <c r="F25">
+        <v>-0.03538885991569464</v>
+      </c>
+      <c r="G25">
+        <v>0.03587438449990036</v>
+      </c>
+      <c r="H25">
+        <v>0.04481811808463824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04485395575459344</v>
+        <v>-0.04485079984943024</v>
       </c>
       <c r="C26">
-        <v>-0.008516489616100735</v>
+        <v>-0.001349998197677703</v>
       </c>
       <c r="D26">
-        <v>-0.01669926438804406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02180368490445571</v>
+      </c>
+      <c r="E26">
+        <v>0.04034006955234821</v>
+      </c>
+      <c r="F26">
+        <v>-0.04034989595352925</v>
+      </c>
+      <c r="G26">
+        <v>0.007898980413808428</v>
+      </c>
+      <c r="H26">
+        <v>0.05191703277214665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05375108977051888</v>
+        <v>-0.0714578644614073</v>
       </c>
       <c r="C28">
-        <v>-0.07392640324520831</v>
+        <v>0.1151918132388983</v>
       </c>
       <c r="D28">
-        <v>0.2993588622939533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2953458048844594</v>
+      </c>
+      <c r="E28">
+        <v>0.03481398514819466</v>
+      </c>
+      <c r="F28">
+        <v>-0.06215662250788632</v>
+      </c>
+      <c r="G28">
+        <v>0.02431156382971554</v>
+      </c>
+      <c r="H28">
+        <v>-0.04893465247046754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04474574600588847</v>
+        <v>-0.04677082730678284</v>
       </c>
       <c r="C29">
-        <v>-0.02837404322448042</v>
+        <v>0.02128700961161617</v>
       </c>
       <c r="D29">
-        <v>-0.008393761571801559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01368117059369009</v>
+      </c>
+      <c r="E29">
+        <v>0.06024496979787837</v>
+      </c>
+      <c r="F29">
+        <v>-0.01988254081332857</v>
+      </c>
+      <c r="G29">
+        <v>0.01447220744807844</v>
+      </c>
+      <c r="H29">
+        <v>0.07652094983572645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1274680430865195</v>
+        <v>-0.1266381187535767</v>
       </c>
       <c r="C30">
-        <v>-0.08575256644602046</v>
+        <v>0.0531310507771355</v>
       </c>
       <c r="D30">
-        <v>-0.1039206844767033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0816168269677492</v>
+      </c>
+      <c r="E30">
+        <v>0.07052812108455354</v>
+      </c>
+      <c r="F30">
+        <v>-0.02278172629135589</v>
+      </c>
+      <c r="G30">
+        <v>0.06565323088032768</v>
+      </c>
+      <c r="H30">
+        <v>-0.03487996373812061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0465672225808542</v>
+        <v>-0.04862745287043195</v>
       </c>
       <c r="C31">
-        <v>-0.02175611733459105</v>
+        <v>0.009950758675058756</v>
       </c>
       <c r="D31">
-        <v>-0.02589112295024272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03417518633697752</v>
+      </c>
+      <c r="E31">
+        <v>0.02352012361491201</v>
+      </c>
+      <c r="F31">
+        <v>-0.00775710689530841</v>
+      </c>
+      <c r="G31">
+        <v>-0.01002847527626658</v>
+      </c>
+      <c r="H31">
+        <v>0.06777672998006906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03841161173873436</v>
+        <v>-0.04029517610832706</v>
       </c>
       <c r="C32">
-        <v>-0.0235842949046734</v>
+        <v>0.02100359534437039</v>
       </c>
       <c r="D32">
-        <v>-0.02216295382707358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.00974275521932424</v>
+      </c>
+      <c r="E32">
+        <v>0.05471387457604046</v>
+      </c>
+      <c r="F32">
+        <v>0.00534022267351475</v>
+      </c>
+      <c r="G32">
+        <v>0.03670457684703656</v>
+      </c>
+      <c r="H32">
+        <v>0.02976854600475273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08521827203734057</v>
+        <v>-0.09387208156984325</v>
       </c>
       <c r="C33">
-        <v>-0.03783913312649047</v>
+        <v>0.01914417594632853</v>
       </c>
       <c r="D33">
-        <v>-0.05659968939634132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04925677533146336</v>
+      </c>
+      <c r="E33">
+        <v>0.01229721039051269</v>
+      </c>
+      <c r="F33">
+        <v>-0.0115802855026569</v>
+      </c>
+      <c r="G33">
+        <v>0.008553333612937569</v>
+      </c>
+      <c r="H33">
+        <v>0.06460333354463031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0593406598804686</v>
+        <v>-0.06419128591675252</v>
       </c>
       <c r="C34">
-        <v>-0.02342120707909513</v>
+        <v>0.007350058606019469</v>
       </c>
       <c r="D34">
-        <v>-0.05372019374673591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04971580911278642</v>
+      </c>
+      <c r="E34">
+        <v>0.005814891892332402</v>
+      </c>
+      <c r="F34">
+        <v>-0.02475974070144739</v>
+      </c>
+      <c r="G34">
+        <v>0.01625205478804622</v>
+      </c>
+      <c r="H34">
+        <v>0.05340417070417647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0362727519516349</v>
+        <v>-0.03813501976328095</v>
       </c>
       <c r="C35">
-        <v>-0.007092160235280068</v>
+        <v>0.0009912128154093544</v>
       </c>
       <c r="D35">
-        <v>-0.01744668633069809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01465123349222939</v>
+      </c>
+      <c r="E35">
+        <v>0.02022498250472034</v>
+      </c>
+      <c r="F35">
+        <v>0.01627930285898669</v>
+      </c>
+      <c r="G35">
+        <v>-0.003875850523950481</v>
+      </c>
+      <c r="H35">
+        <v>0.02327979227667537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02428140822135311</v>
+        <v>-0.02896425141992379</v>
       </c>
       <c r="C36">
-        <v>-0.01748642320915929</v>
+        <v>0.01326639184040005</v>
       </c>
       <c r="D36">
-        <v>-0.02148245404491303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01773834224923072</v>
+      </c>
+      <c r="E36">
+        <v>0.02693459211926359</v>
+      </c>
+      <c r="F36">
+        <v>-0.02818397196535938</v>
+      </c>
+      <c r="G36">
+        <v>0.0004824191438029882</v>
+      </c>
+      <c r="H36">
+        <v>0.04478177262716852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04250504993730057</v>
+        <v>-0.04449551723441118</v>
       </c>
       <c r="C38">
-        <v>-0.001748895174896641</v>
+        <v>-0.005578692116798505</v>
       </c>
       <c r="D38">
-        <v>-0.02182853293085236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0217936559977472</v>
+      </c>
+      <c r="E38">
+        <v>0.05320314391993101</v>
+      </c>
+      <c r="F38">
+        <v>0.005123105833136618</v>
+      </c>
+      <c r="G38">
+        <v>0.004323391836867788</v>
+      </c>
+      <c r="H38">
+        <v>0.02206575459790482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09201623103887772</v>
+        <v>-0.09979613990616822</v>
       </c>
       <c r="C39">
-        <v>-0.06724023819024433</v>
+        <v>0.0441242909114465</v>
       </c>
       <c r="D39">
-        <v>-0.06038005304765235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07043745083118311</v>
+      </c>
+      <c r="E39">
+        <v>0.001813676800194709</v>
+      </c>
+      <c r="F39">
+        <v>-0.001275885375886007</v>
+      </c>
+      <c r="G39">
+        <v>0.04919930548117649</v>
+      </c>
+      <c r="H39">
+        <v>0.03838596480224921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07950205294698728</v>
+        <v>-0.06294188533224999</v>
       </c>
       <c r="C40">
-        <v>-0.03372719798503078</v>
+        <v>0.0048076216455056</v>
       </c>
       <c r="D40">
-        <v>-0.01051995930001278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03300656174207778</v>
+      </c>
+      <c r="E40">
+        <v>0.04565337956633524</v>
+      </c>
+      <c r="F40">
+        <v>0.04081744356775272</v>
+      </c>
+      <c r="G40">
+        <v>0.02666360776179729</v>
+      </c>
+      <c r="H40">
+        <v>-0.07906918313744703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04394944539531416</v>
+        <v>-0.04546360680436977</v>
       </c>
       <c r="C41">
-        <v>-0.004868756220958654</v>
+        <v>-0.005795768745794875</v>
       </c>
       <c r="D41">
-        <v>-0.03737262870093527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03250366563369763</v>
+      </c>
+      <c r="E41">
+        <v>0.003687561495675215</v>
+      </c>
+      <c r="F41">
+        <v>0.01345165914587445</v>
+      </c>
+      <c r="G41">
+        <v>0.01429120000602388</v>
+      </c>
+      <c r="H41">
+        <v>0.02317341813962843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05294985550606025</v>
+        <v>-0.05985970664321896</v>
       </c>
       <c r="C43">
-        <v>-0.02442418223112214</v>
+        <v>0.01431704201661629</v>
       </c>
       <c r="D43">
-        <v>-0.0173126485923054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02927759220865858</v>
+      </c>
+      <c r="E43">
+        <v>0.02261347337918486</v>
+      </c>
+      <c r="F43">
+        <v>-0.016549378636453</v>
+      </c>
+      <c r="G43">
+        <v>-0.01063028436664196</v>
+      </c>
+      <c r="H43">
+        <v>0.06291798653876508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09647121996126733</v>
+        <v>-0.09360409271136769</v>
       </c>
       <c r="C44">
-        <v>-0.08142661727655519</v>
+        <v>0.05158650453707734</v>
       </c>
       <c r="D44">
-        <v>-0.07784136735965011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07183208191852471</v>
+      </c>
+      <c r="E44">
+        <v>0.05941307948856378</v>
+      </c>
+      <c r="F44">
+        <v>-0.08917281833360881</v>
+      </c>
+      <c r="G44">
+        <v>0.03790026721669351</v>
+      </c>
+      <c r="H44">
+        <v>0.07918542156984916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02727890172316043</v>
+        <v>-0.03501845114183245</v>
       </c>
       <c r="C46">
-        <v>-0.01410011280619886</v>
+        <v>0.008560661294268718</v>
       </c>
       <c r="D46">
-        <v>-0.03236231877068483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03691408454999093</v>
+      </c>
+      <c r="E46">
+        <v>0.03454926547659688</v>
+      </c>
+      <c r="F46">
+        <v>-0.01639972519875827</v>
+      </c>
+      <c r="G46">
+        <v>0.005926250542095873</v>
+      </c>
+      <c r="H46">
+        <v>0.02055480557500061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03482982747064424</v>
+        <v>-0.04114111935648609</v>
       </c>
       <c r="C47">
-        <v>-0.02298895148517756</v>
+        <v>0.01827739231282687</v>
       </c>
       <c r="D47">
-        <v>-0.001254669464517105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007094863695163757</v>
+      </c>
+      <c r="E47">
+        <v>0.04396550954518926</v>
+      </c>
+      <c r="F47">
+        <v>0.008314176506057454</v>
+      </c>
+      <c r="G47">
+        <v>-0.02623300138732359</v>
+      </c>
+      <c r="H47">
+        <v>0.02577432495980751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0351843254896715</v>
+        <v>-0.03861325103796297</v>
       </c>
       <c r="C48">
-        <v>-0.01803612800382452</v>
+        <v>0.01011705095625927</v>
       </c>
       <c r="D48">
-        <v>-0.03352175532910202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02149977285557115</v>
+      </c>
+      <c r="E48">
+        <v>0.03847841144990629</v>
+      </c>
+      <c r="F48">
+        <v>-0.01299572041035261</v>
+      </c>
+      <c r="G48">
+        <v>0.02016955604965405</v>
+      </c>
+      <c r="H48">
+        <v>0.02805834604981902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.164447378788472</v>
+        <v>-0.1975203715113001</v>
       </c>
       <c r="C49">
-        <v>-0.04505105763408902</v>
+        <v>0.02872156203920373</v>
       </c>
       <c r="D49">
-        <v>-0.00788145853093657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02736558934467394</v>
+      </c>
+      <c r="E49">
+        <v>-0.1652831728200894</v>
+      </c>
+      <c r="F49">
+        <v>-0.03531954709358588</v>
+      </c>
+      <c r="G49">
+        <v>-0.1334907794949608</v>
+      </c>
+      <c r="H49">
+        <v>-0.2632494885449498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04135885924995895</v>
+        <v>-0.04486647832881741</v>
       </c>
       <c r="C50">
-        <v>-0.01946061279493692</v>
+        <v>0.009475100203302052</v>
       </c>
       <c r="D50">
-        <v>-0.04556437053077053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04021246235863372</v>
+      </c>
+      <c r="E50">
+        <v>0.03554030711603087</v>
+      </c>
+      <c r="F50">
+        <v>-0.01008565652559125</v>
+      </c>
+      <c r="G50">
+        <v>-0.001129670608976293</v>
+      </c>
+      <c r="H50">
+        <v>0.07533504133700535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02912656106685104</v>
+        <v>-0.03420547339654507</v>
       </c>
       <c r="C51">
-        <v>-0.009955036817761114</v>
+        <v>0.006052633890056697</v>
       </c>
       <c r="D51">
-        <v>-0.001617926717490768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.001986639266304934</v>
+      </c>
+      <c r="E51">
+        <v>0.007356411188288337</v>
+      </c>
+      <c r="F51">
+        <v>-0.01183635637792622</v>
+      </c>
+      <c r="G51">
+        <v>-0.01336772693332009</v>
+      </c>
+      <c r="H51">
+        <v>-0.01852356550904913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1574374955147094</v>
+        <v>-0.1613071560756767</v>
       </c>
       <c r="C53">
-        <v>-0.06969912715893621</v>
+        <v>0.0426430325353491</v>
       </c>
       <c r="D53">
-        <v>-0.003555973932402413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02747206177596235</v>
+      </c>
+      <c r="E53">
+        <v>-0.03691721673256373</v>
+      </c>
+      <c r="F53">
+        <v>0.0009326707796534546</v>
+      </c>
+      <c r="G53">
+        <v>0.01289844964545044</v>
+      </c>
+      <c r="H53">
+        <v>0.1960534500784527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05707053155660976</v>
+        <v>-0.05808272184702257</v>
       </c>
       <c r="C54">
-        <v>-0.0199615940290741</v>
+        <v>0.01085549321404401</v>
       </c>
       <c r="D54">
-        <v>-0.01605968359230148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0142498348586116</v>
+      </c>
+      <c r="E54">
+        <v>0.0505994591059518</v>
+      </c>
+      <c r="F54">
+        <v>-0.0194078029037042</v>
+      </c>
+      <c r="G54">
+        <v>0.04665741736507397</v>
+      </c>
+      <c r="H54">
+        <v>0.04199957285748586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1017658052826397</v>
+        <v>-0.1037250581081155</v>
       </c>
       <c r="C55">
-        <v>-0.04843740595489714</v>
+        <v>0.02930315088886021</v>
       </c>
       <c r="D55">
-        <v>-0.02486777486108425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03109336076971774</v>
+      </c>
+      <c r="E55">
+        <v>0.0007814427996011121</v>
+      </c>
+      <c r="F55">
+        <v>-0.01236758702221039</v>
+      </c>
+      <c r="G55">
+        <v>0.01878246917211877</v>
+      </c>
+      <c r="H55">
+        <v>0.1568530770829213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1529989619188489</v>
+        <v>-0.1589116641998495</v>
       </c>
       <c r="C56">
-        <v>-0.07996896744773277</v>
+        <v>0.05004102070171226</v>
       </c>
       <c r="D56">
-        <v>-0.009996955523156065</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04053826429598747</v>
+      </c>
+      <c r="E56">
+        <v>-0.02173502846771887</v>
+      </c>
+      <c r="F56">
+        <v>-0.02170625673409539</v>
+      </c>
+      <c r="G56">
+        <v>0.01193106483353031</v>
+      </c>
+      <c r="H56">
+        <v>0.1981979596231408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.130932699337944</v>
+        <v>-0.09934968494898577</v>
       </c>
       <c r="C58">
-        <v>0.006054052562481638</v>
+        <v>-0.04905620498956821</v>
       </c>
       <c r="D58">
-        <v>-0.02080898824022936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03256825725012543</v>
+      </c>
+      <c r="E58">
+        <v>0.1414873889583742</v>
+      </c>
+      <c r="F58">
+        <v>-0.01404787783181959</v>
+      </c>
+      <c r="G58">
+        <v>-0.0826425378079992</v>
+      </c>
+      <c r="H58">
+        <v>-0.1492948579561767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1270870122048683</v>
+        <v>-0.1481729118962026</v>
       </c>
       <c r="C59">
-        <v>-0.07999979273214083</v>
+        <v>0.1202581481109107</v>
       </c>
       <c r="D59">
-        <v>0.382513801280209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3512794665961717</v>
+      </c>
+      <c r="E59">
+        <v>0.03165113562206497</v>
+      </c>
+      <c r="F59">
+        <v>-0.006725385932539987</v>
+      </c>
+      <c r="G59">
+        <v>-0.01104300459234603</v>
+      </c>
+      <c r="H59">
+        <v>0.01454324423943724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2109042944460593</v>
+        <v>-0.2387225419298576</v>
       </c>
       <c r="C60">
-        <v>-0.08766029135864549</v>
+        <v>0.05561481742752925</v>
       </c>
       <c r="D60">
-        <v>-0.01754842743748875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04863513530699618</v>
+      </c>
+      <c r="E60">
+        <v>-0.1136025912844427</v>
+      </c>
+      <c r="F60">
+        <v>-0.04567473829453889</v>
+      </c>
+      <c r="G60">
+        <v>-0.01809117270781419</v>
+      </c>
+      <c r="H60">
+        <v>-0.1564408721594363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0826003026055591</v>
+        <v>-0.08781273963745062</v>
       </c>
       <c r="C61">
-        <v>-0.04464461530630474</v>
+        <v>0.02755262584388846</v>
       </c>
       <c r="D61">
-        <v>-0.03499017212133038</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04365806317685462</v>
+      </c>
+      <c r="E61">
+        <v>0.003167056034249098</v>
+      </c>
+      <c r="F61">
+        <v>-0.004371337603725799</v>
+      </c>
+      <c r="G61">
+        <v>0.01908447538658604</v>
+      </c>
+      <c r="H61">
+        <v>0.06648922259549636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.132438889378506</v>
+        <v>-0.1351938853014008</v>
       </c>
       <c r="C62">
-        <v>-0.05547583471939434</v>
+        <v>0.0263367671172769</v>
       </c>
       <c r="D62">
-        <v>-0.01709297015094685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04780510554285979</v>
+      </c>
+      <c r="E62">
+        <v>-0.06262017347307293</v>
+      </c>
+      <c r="F62">
+        <v>0.009298918820781333</v>
+      </c>
+      <c r="G62">
+        <v>0.06307495688206176</v>
+      </c>
+      <c r="H62">
+        <v>0.2046415759201516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0522371324409403</v>
+        <v>-0.05197058006829938</v>
       </c>
       <c r="C63">
-        <v>-0.02203872124538806</v>
+        <v>0.01254038698640889</v>
       </c>
       <c r="D63">
-        <v>-0.02881809678133281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02151754375202982</v>
+      </c>
+      <c r="E63">
+        <v>0.04522305876981456</v>
+      </c>
+      <c r="F63">
+        <v>-0.002110846675747819</v>
+      </c>
+      <c r="G63">
+        <v>0.02680315438114441</v>
+      </c>
+      <c r="H63">
+        <v>0.03594927301177502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055260280121762</v>
+        <v>-0.1089718455874627</v>
       </c>
       <c r="C64">
-        <v>-0.02778032941734412</v>
+        <v>0.0114565300529245</v>
       </c>
       <c r="D64">
-        <v>-0.03274838002365606</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03005115093978386</v>
+      </c>
+      <c r="E64">
+        <v>0.0338533577420049</v>
+      </c>
+      <c r="F64">
+        <v>-0.04565594663013554</v>
+      </c>
+      <c r="G64">
+        <v>0.058321477035856</v>
+      </c>
+      <c r="H64">
+        <v>0.02523053761982772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.12999913744899</v>
+        <v>-0.1298140584496749</v>
       </c>
       <c r="C65">
-        <v>-0.05578297384465585</v>
+        <v>0.03716359827925798</v>
       </c>
       <c r="D65">
-        <v>-0.007210016439092488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01414922741678891</v>
+      </c>
+      <c r="E65">
+        <v>-0.01253265002361333</v>
+      </c>
+      <c r="F65">
+        <v>-0.05830693569677964</v>
+      </c>
+      <c r="G65">
+        <v>0.06712045205373099</v>
+      </c>
+      <c r="H65">
+        <v>-0.1383420048324819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1490171154093362</v>
+        <v>-0.1517087082252126</v>
       </c>
       <c r="C66">
-        <v>-0.06427126418653729</v>
+        <v>0.02942042176253963</v>
       </c>
       <c r="D66">
-        <v>-0.1004612351675201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1027670057238272</v>
+      </c>
+      <c r="E66">
+        <v>-0.0245188659975482</v>
+      </c>
+      <c r="F66">
+        <v>-0.001475380395682886</v>
+      </c>
+      <c r="G66">
+        <v>0.06105610415611942</v>
+      </c>
+      <c r="H66">
+        <v>0.096796751220559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07554565872765091</v>
+        <v>-0.08515349905073594</v>
       </c>
       <c r="C67">
-        <v>-0.007651648780677506</v>
+        <v>-0.003063084352187627</v>
       </c>
       <c r="D67">
-        <v>-0.02473874508565991</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03283463988159908</v>
+      </c>
+      <c r="E67">
+        <v>0.02144890062194133</v>
+      </c>
+      <c r="F67">
+        <v>-0.01391721120370487</v>
+      </c>
+      <c r="G67">
+        <v>-0.01293489391004169</v>
+      </c>
+      <c r="H67">
+        <v>0.02326663858573454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06125758041633635</v>
+        <v>-0.06601143462105867</v>
       </c>
       <c r="C68">
-        <v>-0.05238205757992574</v>
+        <v>0.08682688044570801</v>
       </c>
       <c r="D68">
-        <v>0.2564748971269349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.262155249547257</v>
+      </c>
+      <c r="E68">
+        <v>0.04200926440373093</v>
+      </c>
+      <c r="F68">
+        <v>-0.01578727354966721</v>
+      </c>
+      <c r="G68">
+        <v>-0.006748820871375295</v>
+      </c>
+      <c r="H68">
+        <v>0.01720432284530388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0525519330034778</v>
+        <v>-0.05212382574417863</v>
       </c>
       <c r="C69">
-        <v>-0.01494451893202256</v>
+        <v>0.002987099114107653</v>
       </c>
       <c r="D69">
-        <v>-0.02731350652894731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02046932498715573</v>
+      </c>
+      <c r="E69">
+        <v>0.02537228617310633</v>
+      </c>
+      <c r="F69">
+        <v>0.01224423270249445</v>
+      </c>
+      <c r="G69">
+        <v>-0.002039587693251824</v>
+      </c>
+      <c r="H69">
+        <v>0.04953900476145208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002436363797068388</v>
+        <v>-0.02702661235077834</v>
       </c>
       <c r="C70">
-        <v>0.007825904120360463</v>
+        <v>-0.002520816254140027</v>
       </c>
       <c r="D70">
-        <v>0.01252004788863491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007628003735746043</v>
+      </c>
+      <c r="E70">
+        <v>-0.01762102917327417</v>
+      </c>
+      <c r="F70">
+        <v>-0.006130807325217843</v>
+      </c>
+      <c r="G70">
+        <v>-0.02942118351446221</v>
+      </c>
+      <c r="H70">
+        <v>-0.02886288202989972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05904758732843889</v>
+        <v>-0.06989594579735309</v>
       </c>
       <c r="C71">
-        <v>-0.05215367736578114</v>
+        <v>0.09529839204529786</v>
       </c>
       <c r="D71">
-        <v>0.2919950070403347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2888905013761416</v>
+      </c>
+      <c r="E71">
+        <v>0.03825810679850998</v>
+      </c>
+      <c r="F71">
+        <v>-0.04688577644422169</v>
+      </c>
+      <c r="G71">
+        <v>-0.002195463367844255</v>
+      </c>
+      <c r="H71">
+        <v>0.0128707417593531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1433026333332401</v>
+        <v>-0.1446550924550636</v>
       </c>
       <c r="C72">
-        <v>-0.05516196995690775</v>
+        <v>0.02925901243265423</v>
       </c>
       <c r="D72">
-        <v>-0.003251210631190973</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003480411031868085</v>
+      </c>
+      <c r="E72">
+        <v>-0.05785827950049602</v>
+      </c>
+      <c r="F72">
+        <v>0.1610804009714429</v>
+      </c>
+      <c r="G72">
+        <v>0.116717472026029</v>
+      </c>
+      <c r="H72">
+        <v>-0.01599912662916813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.286601605730133</v>
+        <v>-0.2867248868160989</v>
       </c>
       <c r="C73">
-        <v>-0.08738182280272458</v>
+        <v>0.02013286522407928</v>
       </c>
       <c r="D73">
-        <v>-0.04314342774621638</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1009959457056148</v>
+      </c>
+      <c r="E73">
+        <v>-0.2386711966255231</v>
+      </c>
+      <c r="F73">
+        <v>-0.052091934177984</v>
+      </c>
+      <c r="G73">
+        <v>-0.2453684901196127</v>
+      </c>
+      <c r="H73">
+        <v>-0.4156805121645293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08405287253702652</v>
+        <v>-0.09193324407191142</v>
       </c>
       <c r="C74">
-        <v>-0.07325079077039322</v>
+        <v>0.05375932568983342</v>
       </c>
       <c r="D74">
-        <v>-0.01159551426888883</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04044870933801433</v>
+      </c>
+      <c r="E74">
+        <v>-0.01009670657222521</v>
+      </c>
+      <c r="F74">
+        <v>0.003133822866090849</v>
+      </c>
+      <c r="G74">
+        <v>-0.02454931763787581</v>
+      </c>
+      <c r="H74">
+        <v>0.1298224428420175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1010012731980551</v>
+        <v>-0.103828426854641</v>
       </c>
       <c r="C75">
-        <v>-0.04605804485153071</v>
+        <v>0.02136109234199482</v>
       </c>
       <c r="D75">
-        <v>-0.01363939064667396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0256362422209615</v>
+      </c>
+      <c r="E75">
+        <v>-0.00338679146581614</v>
+      </c>
+      <c r="F75">
+        <v>-0.003376585112187826</v>
+      </c>
+      <c r="G75">
+        <v>-0.003556212230517146</v>
+      </c>
+      <c r="H75">
+        <v>0.1027067346462135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1343105469069976</v>
+        <v>-0.1426109516021258</v>
       </c>
       <c r="C76">
-        <v>-0.07576263418739587</v>
+        <v>0.04945026759049209</v>
       </c>
       <c r="D76">
-        <v>-0.03200639338711698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05394449753338552</v>
+      </c>
+      <c r="E76">
+        <v>0.007944663803341747</v>
+      </c>
+      <c r="F76">
+        <v>-0.03714809905993842</v>
+      </c>
+      <c r="G76">
+        <v>0.01909998460202582</v>
+      </c>
+      <c r="H76">
+        <v>0.2175275036295861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1174888480271902</v>
+        <v>-0.1030227517412366</v>
       </c>
       <c r="C77">
-        <v>-0.0082008742606166</v>
+        <v>-0.0224257026314405</v>
       </c>
       <c r="D77">
-        <v>-0.08700201828605506</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03895398968845232</v>
+      </c>
+      <c r="E77">
+        <v>0.0409011971288754</v>
+      </c>
+      <c r="F77">
+        <v>-0.1168689684352023</v>
+      </c>
+      <c r="G77">
+        <v>0.8287570605154456</v>
+      </c>
+      <c r="H77">
+        <v>-0.3082344597378828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1072769063271361</v>
+        <v>-0.1516797799200233</v>
       </c>
       <c r="C78">
-        <v>-0.03382474630866107</v>
+        <v>0.02909170678367509</v>
       </c>
       <c r="D78">
-        <v>-0.09087277278765997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07930538289672208</v>
+      </c>
+      <c r="E78">
+        <v>0.05110682548893609</v>
+      </c>
+      <c r="F78">
+        <v>-0.06466278813598209</v>
+      </c>
+      <c r="G78">
+        <v>0.05299337473508759</v>
+      </c>
+      <c r="H78">
+        <v>-0.0740366362598113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1501707019221175</v>
+        <v>-0.1487478561554189</v>
       </c>
       <c r="C79">
-        <v>-0.06433343638619234</v>
+        <v>0.03081365558669846</v>
       </c>
       <c r="D79">
-        <v>-0.02193319104859852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03991850652096941</v>
+      </c>
+      <c r="E79">
+        <v>-0.02183515542943333</v>
+      </c>
+      <c r="F79">
+        <v>-0.01718689797928078</v>
+      </c>
+      <c r="G79">
+        <v>0.01193641221174545</v>
+      </c>
+      <c r="H79">
+        <v>0.1624995486712976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04111958233911214</v>
+        <v>-0.04185016090683437</v>
       </c>
       <c r="C80">
-        <v>-0.01845040400838175</v>
+        <v>0.01112956709024872</v>
       </c>
       <c r="D80">
-        <v>-0.03221117548458175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01714750416605895</v>
+      </c>
+      <c r="E80">
+        <v>-0.0301169870837268</v>
+      </c>
+      <c r="F80">
+        <v>-0.001668291098176592</v>
+      </c>
+      <c r="G80">
+        <v>-0.02457977996954121</v>
+      </c>
+      <c r="H80">
+        <v>0.03944939579775057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1216555977206619</v>
+        <v>-0.1236756591118464</v>
       </c>
       <c r="C81">
-        <v>-0.05390528243766529</v>
+        <v>0.02941282252477081</v>
       </c>
       <c r="D81">
-        <v>-0.03311627492364096</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03150891090862266</v>
+      </c>
+      <c r="E81">
+        <v>0.009042901903169432</v>
+      </c>
+      <c r="F81">
+        <v>-0.005001068734864473</v>
+      </c>
+      <c r="G81">
+        <v>-0.02605540631131696</v>
+      </c>
+      <c r="H81">
+        <v>0.1452267159525712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1338582581712661</v>
+        <v>-0.131421950433684</v>
       </c>
       <c r="C82">
-        <v>-0.06848518056619729</v>
+        <v>0.04118468275973317</v>
       </c>
       <c r="D82">
-        <v>-0.01072428910448569</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03849965706252179</v>
+      </c>
+      <c r="E82">
+        <v>-0.02399517953197735</v>
+      </c>
+      <c r="F82">
+        <v>-0.04229496998853161</v>
+      </c>
+      <c r="G82">
+        <v>-0.009248724232948443</v>
+      </c>
+      <c r="H82">
+        <v>0.2248691917724457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06910992600051562</v>
+        <v>-0.08248329012614132</v>
       </c>
       <c r="C83">
-        <v>0.02960435702891459</v>
+        <v>-0.04093698033330631</v>
       </c>
       <c r="D83">
-        <v>-0.01343585402895792</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01962123011542146</v>
+      </c>
+      <c r="E83">
+        <v>0.02191818533556186</v>
+      </c>
+      <c r="F83">
+        <v>-0.04751005824593653</v>
+      </c>
+      <c r="G83">
+        <v>-0.06771373427138212</v>
+      </c>
+      <c r="H83">
+        <v>-0.02750390125973165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02891319674155335</v>
+        <v>-0.03632051894387237</v>
       </c>
       <c r="C84">
-        <v>-0.02889059484877599</v>
+        <v>0.02086566797214887</v>
       </c>
       <c r="D84">
-        <v>-0.03514219389600026</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03557811587712026</v>
+      </c>
+      <c r="E84">
+        <v>0.02582564435601767</v>
+      </c>
+      <c r="F84">
+        <v>0.04088537556647377</v>
+      </c>
+      <c r="G84">
+        <v>-0.04959216662926232</v>
+      </c>
+      <c r="H84">
+        <v>0.03351348866956842</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1178133143751357</v>
+        <v>-0.1209020763935676</v>
       </c>
       <c r="C85">
-        <v>-0.03903546920242885</v>
+        <v>0.01606132818015339</v>
       </c>
       <c r="D85">
-        <v>-0.05281624527227818</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03934984958032379</v>
+      </c>
+      <c r="E85">
+        <v>0.01230857636647924</v>
+      </c>
+      <c r="F85">
+        <v>-0.02943136573904469</v>
+      </c>
+      <c r="G85">
+        <v>-0.006758526929482664</v>
+      </c>
+      <c r="H85">
+        <v>0.1438913442730033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05327371411459126</v>
+        <v>-0.05674924397321179</v>
       </c>
       <c r="C86">
-        <v>-0.02000008924029761</v>
+        <v>0.007033211603527775</v>
       </c>
       <c r="D86">
-        <v>-0.06271388396716743</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03434965040003992</v>
+      </c>
+      <c r="E86">
+        <v>0.0442898391126989</v>
+      </c>
+      <c r="F86">
+        <v>-0.03508619348458127</v>
+      </c>
+      <c r="G86">
+        <v>-0.04257843015095523</v>
+      </c>
+      <c r="H86">
+        <v>-0.0320231679411453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1221012457701867</v>
+        <v>-0.1248041353154868</v>
       </c>
       <c r="C87">
-        <v>-0.06615773969264223</v>
+        <v>0.03139860200614021</v>
       </c>
       <c r="D87">
-        <v>-0.0742896425896719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07145179314971681</v>
+      </c>
+      <c r="E87">
+        <v>0.01960283104316669</v>
+      </c>
+      <c r="F87">
+        <v>-0.01841565322866517</v>
+      </c>
+      <c r="G87">
+        <v>0.1253711297617993</v>
+      </c>
+      <c r="H87">
+        <v>-0.06912067047261479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05399894461641886</v>
+        <v>-0.06214689680648518</v>
       </c>
       <c r="C88">
-        <v>-0.02747321810810644</v>
+        <v>0.01673337600454123</v>
       </c>
       <c r="D88">
-        <v>-0.02695548935732258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03897329298767356</v>
+      </c>
+      <c r="E88">
+        <v>0.009701314262987898</v>
+      </c>
+      <c r="F88">
+        <v>-0.01651022238118105</v>
+      </c>
+      <c r="G88">
+        <v>0.01604484449074989</v>
+      </c>
+      <c r="H88">
+        <v>0.04073141666326123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09091975678571122</v>
+        <v>-0.1081243377820807</v>
       </c>
       <c r="C89">
-        <v>-0.07567793098507093</v>
+        <v>0.1224804662189236</v>
       </c>
       <c r="D89">
-        <v>0.330986186893405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.337069138252369</v>
+      </c>
+      <c r="E89">
+        <v>0.06401622911044394</v>
+      </c>
+      <c r="F89">
+        <v>-0.07205160221939821</v>
+      </c>
+      <c r="G89">
+        <v>-0.02733751717332927</v>
+      </c>
+      <c r="H89">
+        <v>0.01908477173609859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07439062154848075</v>
+        <v>-0.08644038546620682</v>
       </c>
       <c r="C90">
-        <v>-0.06335013783996081</v>
+        <v>0.1007786972834774</v>
       </c>
       <c r="D90">
-        <v>0.2830242043940007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2788541459986836</v>
+      </c>
+      <c r="E90">
+        <v>0.05054265814028099</v>
+      </c>
+      <c r="F90">
+        <v>-0.03703628263011884</v>
+      </c>
+      <c r="G90">
+        <v>0.02175944532373209</v>
+      </c>
+      <c r="H90">
+        <v>-0.003104941333633912</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08956692609474809</v>
+        <v>-0.0911488125391984</v>
       </c>
       <c r="C91">
-        <v>-0.04807294529114134</v>
+        <v>0.02569920735348575</v>
       </c>
       <c r="D91">
-        <v>-0.02135101261370914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03381544928647869</v>
+      </c>
+      <c r="E91">
+        <v>0.006800173115075453</v>
+      </c>
+      <c r="F91">
+        <v>0.00074173945406443</v>
+      </c>
+      <c r="G91">
+        <v>-0.02322051420923327</v>
+      </c>
+      <c r="H91">
+        <v>0.08791439866937992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07922548530179738</v>
+        <v>-0.089821913326287</v>
       </c>
       <c r="C92">
-        <v>-0.07847250447723693</v>
+        <v>0.1230090412572848</v>
       </c>
       <c r="D92">
-        <v>0.342291082090753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3324183321869087</v>
+      </c>
+      <c r="E92">
+        <v>0.04375153852645022</v>
+      </c>
+      <c r="F92">
+        <v>-0.03998272752312431</v>
+      </c>
+      <c r="G92">
+        <v>0.01282995480279699</v>
+      </c>
+      <c r="H92">
+        <v>0.01707014207213952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06771373874422826</v>
+        <v>-0.082973716679245</v>
       </c>
       <c r="C93">
-        <v>-0.06718094073741263</v>
+        <v>0.1111895806248256</v>
       </c>
       <c r="D93">
-        <v>0.2999750632808046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2938368916786263</v>
+      </c>
+      <c r="E93">
+        <v>0.02549014005631994</v>
+      </c>
+      <c r="F93">
+        <v>-0.03292876749711342</v>
+      </c>
+      <c r="G93">
+        <v>0.01410123502694462</v>
+      </c>
+      <c r="H93">
+        <v>0.0007164920141083268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1357164255572096</v>
+        <v>-0.1301009454818012</v>
       </c>
       <c r="C94">
-        <v>-0.04160616300791952</v>
+        <v>0.008757588764047903</v>
       </c>
       <c r="D94">
-        <v>-0.04195927662298544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04958529377353452</v>
+      </c>
+      <c r="E94">
+        <v>-0.017732745256274</v>
+      </c>
+      <c r="F94">
+        <v>-0.01133772359801586</v>
+      </c>
+      <c r="G94">
+        <v>-0.04698206655304635</v>
+      </c>
+      <c r="H94">
+        <v>0.1111842985064967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1216108087820658</v>
+        <v>-0.1295075379938954</v>
       </c>
       <c r="C95">
-        <v>-0.01764806266850668</v>
+        <v>-0.00768772092562985</v>
       </c>
       <c r="D95">
-        <v>-0.05428579853929046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06051124120463693</v>
+      </c>
+      <c r="E95">
+        <v>0.005154387617658484</v>
+      </c>
+      <c r="F95">
+        <v>-0.05932141081539834</v>
+      </c>
+      <c r="G95">
+        <v>0.02256824370704807</v>
+      </c>
+      <c r="H95">
+        <v>-0.06790042182308281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2192803577386332</v>
+        <v>-0.1986328452933139</v>
       </c>
       <c r="C97">
-        <v>-0.03778239418249012</v>
+        <v>-0.004037112358963069</v>
       </c>
       <c r="D97">
-        <v>0.08132290985404764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07082619799807056</v>
+      </c>
+      <c r="E97">
+        <v>-0.0705635342730767</v>
+      </c>
+      <c r="F97">
+        <v>0.9261002183392808</v>
+      </c>
+      <c r="G97">
+        <v>0.1007517198321515</v>
+      </c>
+      <c r="H97">
+        <v>-0.01862866117852807</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2469275499489694</v>
+        <v>-0.2740224768135162</v>
       </c>
       <c r="C98">
-        <v>-0.05035148695616073</v>
+        <v>0.01093484440997689</v>
       </c>
       <c r="D98">
-        <v>-0.01990986362491041</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04829179006638581</v>
+      </c>
+      <c r="E98">
+        <v>-0.19293554487072</v>
+      </c>
+      <c r="F98">
+        <v>-0.03525268755603365</v>
+      </c>
+      <c r="G98">
+        <v>-0.2975738095691057</v>
+      </c>
+      <c r="H98">
+        <v>-0.2073322760314302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3872596023081359</v>
+        <v>-0.2552254280579255</v>
       </c>
       <c r="C99">
-        <v>0.9024092505256609</v>
+        <v>-0.9198557777528438</v>
       </c>
       <c r="D99">
-        <v>0.07028386487133939</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2311848808614508</v>
+      </c>
+      <c r="E99">
+        <v>0.06880246210395199</v>
+      </c>
+      <c r="F99">
+        <v>-0.06706696534091786</v>
+      </c>
+      <c r="G99">
+        <v>-0.004168630031813826</v>
+      </c>
+      <c r="H99">
+        <v>0.07578027323779632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04454055085683985</v>
+        <v>-0.04668951746809331</v>
       </c>
       <c r="C101">
-        <v>-0.02848713510949438</v>
+        <v>0.02151432669132237</v>
       </c>
       <c r="D101">
-        <v>-0.009196750729767294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01396338963188808</v>
+      </c>
+      <c r="E101">
+        <v>0.06019381143020792</v>
+      </c>
+      <c r="F101">
+        <v>-0.01942050094038961</v>
+      </c>
+      <c r="G101">
+        <v>0.01359956056981748</v>
+      </c>
+      <c r="H101">
+        <v>0.0755238834725127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
